--- a/data/question_answer/QA_heygen.xlsx
+++ b/data/question_answer/QA_heygen.xlsx
@@ -42,19 +42,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -98,7 +92,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -434,7 +428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -445,7 +439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
